--- a/biology/Zoologie/Actias/Actias.xlsx
+++ b/biology/Zoologie/Actias/Actias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actias est un genre de lépidoptères (papillons) de la famille des Saturniidae et de la sous-famille des Saturniinae.
 </t>
@@ -511,19 +523,21 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Actias a été décrit en 1815 par le zoologiste britannique William Elford Leach[1]. Il a pour espèce type Phalaena luna Linnaeus, 1758[2].
-Actias Leach, 1815 a pour synonymes[3] :
-Echidna Hübner, [1807]
-Tropaea Hübner, [1819]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Actias a été décrit en 1815 par le zoologiste britannique William Elford Leach. Il a pour espèce type Phalaena luna Linnaeus, 1758.
+Actias Leach, 1815 a pour synonymes :
+Echidna Hübner, 
+Tropaea Hübner, 
 Meceura Billberg, 1820
 Artemis Kirby &amp; Spence, 1828
 Plectropteron Hutton, 1846
 Euandrea Watson, 1913
 Sonthonnaxia Watson, 1913
 Proactias Arora &amp; Gupta, 1979
-Les genres Graellsia Grote, 1896 et Argema Wallengren, 1858 sont étroitement apparentés à Actias et en sont parfois aussi traités comme des synonymes[2].
+Les genres Graellsia Grote, 1896 et Argema Wallengren, 1858 sont étroitement apparentés à Actias et en sont parfois aussi traités comme des synonymes.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kitching et al., 2018[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kitching et al., 2018 :
 Actias aliena (Butler, 1879)
 Actias angulocaudata Naumann &amp; Bouyer, 1998
 Actias apollo Röber, 1923
